--- a/Running projects/NASTP/010- Invoice for Operation and maintenance charges Doc 23.xlsx
+++ b/Running projects/NASTP/010- Invoice for Operation and maintenance charges Doc 23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E4467-166A-4296-BCD8-8AD9E2B2E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D7783-8CDB-4102-9792-5240E35A86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>S.#</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>(Two Million Two Hundred Fourteen Thousand Eight Hundred Only/=).</t>
+  </si>
+  <si>
+    <t>07 Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -437,9 +440,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,9 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -518,6 +515,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,7 +553,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>459120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>122853</xdr:rowOff>
+      <xdr:rowOff>122854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1036,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1054,36 +1057,38 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="D10" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="1:4" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1103,12 +1108,12 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -1117,12 +1122,12 @@
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
@@ -1131,12 +1136,12 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1148,85 +1153,85 @@
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="26">
+      <c r="C23" s="34"/>
+      <c r="D23" s="25">
         <v>1960000</v>
       </c>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="24">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52">
         <f>SUM(D23:D23)</f>
         <v>1960000</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="38">
         <v>45200</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="39">
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="24">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="52">
         <f>D24*13%</f>
         <v>254800</v>
       </c>
-      <c r="J25" s="48"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="36">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="53">
         <f>D25+D24</f>
         <v>2214800</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="J26" s="48"/>
+      <c r="E26" s="32"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="22"/>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="39">
         <v>500000</v>
       </c>
-      <c r="J27" s="48"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1235,18 +1240,18 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
-      <c r="I28" s="41">
+      <c r="I28" s="39">
         <f>I24-I27</f>
         <v>1460000</v>
       </c>
-      <c r="J28" s="48"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="22"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1255,14 +1260,14 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
-      <c r="H30" s="40">
+      <c r="H30" s="38">
         <v>45231</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="39">
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="J30" s="48"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -1271,24 +1276,24 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>500000</v>
       </c>
-      <c r="J31" s="48"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
-      <c r="I32" s="41">
+      <c r="I32" s="39">
         <f>I30-I31</f>
         <v>1460000</v>
       </c>
-      <c r="J32" s="49"/>
-    </row>
-    <row r="33" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="1:10" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="9"/>
@@ -1303,7 +1308,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="I35" s="42">
+      <c r="I35" s="40">
         <f>I32+I28</f>
         <v>2920000</v>
       </c>
